--- a/chap3/3-32.xlsx
+++ b/chap3/3-32.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019fall\S-O-MQC-HW\chap3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2016-2020\2019fall\S-O-MQC-HW\chap3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{041F1C60-238D-4E91-AD0B-25E3146E6ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE8FBB-90E6-443B-A0E0-54EEB7F08BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="120" windowWidth="10380" windowHeight="12240" xr2:uid="{932F3F8C-504A-4C67-8000-8F581955A79B}"/>
+    <workbookView xWindow="9156" yWindow="1092" windowWidth="14100" windowHeight="10260" xr2:uid="{932F3F8C-504A-4C67-8000-8F581955A79B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -445,7 +448,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -497,11 +500,11 @@
         <v>-56.101999999999997</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">2*D3-B3-3*C3</f>
+        <f t="shared" ref="E3:E6" si="0">2*D3-B3-3*C3</f>
         <v>-6.8999999999988404E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="1">E3*627.5</f>
+        <f t="shared" ref="F3:F6" si="1">E3*627.5</f>
         <v>-43.297499999992723</v>
       </c>
     </row>
@@ -579,11 +582,11 @@
         <v>6.18</v>
       </c>
       <c r="D7">
-        <v>10.76</v>
+        <v>20.46</v>
       </c>
       <c r="F7">
         <f>2*D7-B7-3*C7</f>
-        <v>-0.37000000000000099</v>
+        <v>19.03</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>-111.52500000000001</v>
+        <v>-111.22499999999999</v>
       </c>
       <c r="C9">
         <v>-1.117</v>
@@ -618,11 +621,11 @@
       </c>
       <c r="F9">
         <f>D9+E9-B9-3*C9</f>
-        <v>0.18600000000000794</v>
+        <v>-0.11400000000000343</v>
       </c>
       <c r="G9">
         <f>F9*627.5</f>
-        <v>116.71500000000498</v>
+        <v>-71.535000000002157</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -642,11 +645,11 @@
         <v>-75.906999999999996</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:G14" si="2">D10+E10-B10-3*C10</f>
+        <f t="shared" ref="F10:F14" si="2">D10+E10-B10-3*C10</f>
         <v>-0.11399999999999011</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G14" si="3">F10*627.5</f>
+        <f t="shared" ref="G10:G13" si="3">F10*627.5</f>
         <v>-71.534999999993801</v>
       </c>
     </row>
